--- a/Figure5/samples_in_heatmap_5b_cutoffof40counts_v25.xlsx
+++ b/Figure5/samples_in_heatmap_5b_cutoffof40counts_v25.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="1484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="1408">
   <si>
     <t xml:space="preserve">sample</t>
   </si>
@@ -4007,12 +4007,6 @@
     <t xml:space="preserve">Processed October 12, 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Y60501216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.1.1.529 (BA.2.75.2)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Y60502944</t>
   </si>
   <si>
@@ -4064,18 +4058,12 @@
     <t xml:space="preserve">Y70102448</t>
   </si>
   <si>
-    <t xml:space="preserve">Y70200339</t>
-  </si>
-  <si>
     <t xml:space="preserve">Y70203440</t>
   </si>
   <si>
     <t xml:space="preserve">Processed November 8, 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Y70400749</t>
-  </si>
-  <si>
     <t xml:space="preserve">Y70500436</t>
   </si>
   <si>
@@ -4085,7 +4073,7 @@
     <t xml:space="preserve">Y70501366</t>
   </si>
   <si>
-    <t xml:space="preserve">Y71003271</t>
+    <t xml:space="preserve">Y71101099</t>
   </si>
   <si>
     <t xml:space="preserve">Processed November 15, 2022</t>
@@ -4094,13 +4082,10 @@
     <t xml:space="preserve">11-6-2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Y71101099</t>
-  </si>
-  <si>
     <t xml:space="preserve">Y71200326</t>
   </si>
   <si>
-    <t xml:space="preserve">Y71602868</t>
+    <t xml:space="preserve">Y71802051</t>
   </si>
   <si>
     <t xml:space="preserve">Processed November 22, 2022</t>
@@ -4109,15 +4094,6 @@
     <t xml:space="preserve">11-13-2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Y71603392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y71700900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y71802051</t>
-  </si>
-  <si>
     <t xml:space="preserve">Y72000311</t>
   </si>
   <si>
@@ -4133,21 +4109,12 @@
     <t xml:space="preserve">11-27-2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Y72900788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y73002354</t>
+    <t xml:space="preserve">Y80200814</t>
   </si>
   <si>
     <t xml:space="preserve">Processed January 3, 2023</t>
   </si>
   <si>
-    <t xml:space="preserve">Y80200814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y80201336</t>
-  </si>
-  <si>
     <t xml:space="preserve">Y80400295</t>
   </si>
   <si>
@@ -4181,37 +4148,25 @@
     <t xml:space="preserve">Y81202981</t>
   </si>
   <si>
-    <t xml:space="preserve">Y81300644</t>
+    <t xml:space="preserve">Y81401801</t>
   </si>
   <si>
     <t xml:space="preserve">Processed December 16, 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Y81302111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y81401801</t>
-  </si>
-  <si>
     <t xml:space="preserve">Y82103204</t>
   </si>
   <si>
     <t xml:space="preserve">12-18-2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Y82200985</t>
-  </si>
-  <si>
     <t xml:space="preserve">Y82202926</t>
   </si>
   <si>
-    <t xml:space="preserve">Y82301825</t>
-  </si>
-  <si>
     <t xml:space="preserve">Y82401090</t>
   </si>
   <si>
-    <t xml:space="preserve">Y82902168</t>
+    <t xml:space="preserve">Y83000388</t>
   </si>
   <si>
     <t xml:space="preserve">Processed January 5, 2023</t>
@@ -4220,13 +4175,7 @@
     <t xml:space="preserve">12-25-2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Y82902418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y83000388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y90200938</t>
+    <t xml:space="preserve">Y90400658</t>
   </si>
   <si>
     <t xml:space="preserve">Processed January 10, 2023</t>
@@ -4235,39 +4184,18 @@
     <t xml:space="preserve">1-1-2023</t>
   </si>
   <si>
-    <t xml:space="preserve">Y90301105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y90303295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y90400658</t>
-  </si>
-  <si>
     <t xml:space="preserve">Y90400663</t>
   </si>
   <si>
-    <t xml:space="preserve">Y90401353</t>
-  </si>
-  <si>
     <t xml:space="preserve">Y90401386</t>
   </si>
   <si>
     <t xml:space="preserve">Y90500252</t>
   </si>
   <si>
-    <t xml:space="preserve">Y90601154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y90603413</t>
-  </si>
-  <si>
     <t xml:space="preserve">Y90700816</t>
   </si>
   <si>
-    <t xml:space="preserve">Y90701407</t>
-  </si>
-  <si>
     <t xml:space="preserve">Y90800579</t>
   </si>
   <si>
@@ -4277,193 +4205,37 @@
     <t xml:space="preserve">1-8-2023</t>
   </si>
   <si>
-    <t xml:space="preserve">Y91000361</t>
+    <t xml:space="preserve">Y91002691</t>
   </si>
   <si>
     <t xml:space="preserve">Processed January 13, 2023</t>
   </si>
   <si>
-    <t xml:space="preserve">Y91002691</t>
-  </si>
-  <si>
     <t xml:space="preserve">Y91101085</t>
   </si>
   <si>
     <t xml:space="preserve">Processed January 17, 2023</t>
   </si>
   <si>
-    <t xml:space="preserve">Y91103778</t>
-  </si>
-  <si>
     <t xml:space="preserve">Y91203533</t>
   </si>
   <si>
-    <t xml:space="preserve">Y91602241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processed January 20, 2023</t>
+    <t xml:space="preserve">Y91802921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processed January 24, 2023</t>
   </si>
   <si>
     <t xml:space="preserve">1-15-2023</t>
   </si>
   <si>
-    <t xml:space="preserve">Y91802921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processed January 24, 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y92200221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processed January 25, 2023</t>
+    <t xml:space="preserve">Y92602864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processed February 10, 2023</t>
   </si>
   <si>
     <t xml:space="preserve">1-22-2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y92301941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y92403887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processed February 10, 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y92602864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y92900310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processed February 3, 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-29-2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y93001499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y93103458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z00302526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z00400281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z00500320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-5-2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z00501484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z00702324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processed February 14, 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z00800338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z00801395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z00900304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z01002991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z01003001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z10703373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processed March 15, 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-5-2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z10800567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z10803287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z11000353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z11000727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z11200863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processed March 21, 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-12-2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z11200870</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z11200871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z11301068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processed March 29, 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z11402401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z11502028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z11502039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z11503483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z11601754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z11900720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-19-2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z11900729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z12003247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z12702521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processed March 31, 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-26-2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z12702529</t>
   </si>
 </sst>
 </file>
@@ -31718,7 +31490,7 @@
         <v>1331</v>
       </c>
       <c r="B1171" t="s">
-        <v>1332</v>
+        <v>1314</v>
       </c>
       <c r="C1171" t="s">
         <v>1330</v>
@@ -31738,94 +31510,94 @@
     </row>
     <row r="1172">
       <c r="A1172" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B1172" t="s">
         <v>1314</v>
       </c>
       <c r="C1172" t="s">
-        <v>1330</v>
+        <v>1333</v>
       </c>
       <c r="D1172" s="1" t="n">
-        <v>44839</v>
+        <v>44845</v>
       </c>
       <c r="E1172" s="1" t="n">
-        <v>44836</v>
+        <v>44843</v>
       </c>
       <c r="F1172" t="s">
-        <v>1328</v>
+        <v>1334</v>
       </c>
       <c r="G1172" t="s">
-        <v>1328</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1173">
       <c r="A1173" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="B1173" t="s">
         <v>1314</v>
       </c>
       <c r="C1173" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="D1173" s="1" t="n">
-        <v>44845</v>
+        <v>44847</v>
       </c>
       <c r="E1173" s="1" t="n">
         <v>44843</v>
       </c>
       <c r="F1173" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="G1173" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1174">
       <c r="A1174" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B1174" t="s">
         <v>1314</v>
       </c>
       <c r="C1174" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="D1174" s="1" t="n">
-        <v>44847</v>
+        <v>44857</v>
       </c>
       <c r="E1174" s="1" t="n">
-        <v>44843</v>
+        <v>44857</v>
       </c>
       <c r="F1174" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="G1174" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B1175" t="s">
         <v>1314</v>
       </c>
       <c r="C1175" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="D1175" s="1" t="n">
-        <v>44857</v>
+        <v>44860</v>
       </c>
       <c r="E1175" s="1" t="n">
         <v>44857</v>
       </c>
       <c r="F1175" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="G1175" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1176">
@@ -31836,7 +31608,7 @@
         <v>1314</v>
       </c>
       <c r="C1176" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="D1176" s="1" t="n">
         <v>44860</v>
@@ -31845,21 +31617,21 @@
         <v>44857</v>
       </c>
       <c r="F1176" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="G1176" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1177">
       <c r="A1177" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B1177" t="s">
         <v>1314</v>
       </c>
       <c r="C1177" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="D1177" s="1" t="n">
         <v>44860</v>
@@ -31868,33 +31640,33 @@
         <v>44857</v>
       </c>
       <c r="F1177" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="G1177" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1178">
       <c r="A1178" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B1178" t="s">
         <v>1314</v>
       </c>
       <c r="C1178" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="D1178" s="1" t="n">
-        <v>44860</v>
+        <v>44863</v>
       </c>
       <c r="E1178" s="1" t="n">
         <v>44857</v>
       </c>
       <c r="F1178" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="G1178" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1179">
@@ -31905,19 +31677,19 @@
         <v>1314</v>
       </c>
       <c r="C1179" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D1179" s="1" t="n">
+        <v>44865</v>
+      </c>
+      <c r="E1179" s="1" t="n">
+        <v>44864</v>
+      </c>
+      <c r="F1179" t="s">
         <v>1346</v>
       </c>
-      <c r="D1179" s="1" t="n">
-        <v>44863</v>
-      </c>
-      <c r="E1179" s="1" t="n">
-        <v>44857</v>
-      </c>
-      <c r="F1179" t="s">
-        <v>1340</v>
-      </c>
       <c r="G1179" t="s">
-        <v>1340</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="1180">
@@ -31928,42 +31700,42 @@
         <v>1314</v>
       </c>
       <c r="C1180" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="D1180" s="1" t="n">
-        <v>44865</v>
+        <v>44866</v>
       </c>
       <c r="E1180" s="1" t="n">
         <v>44864</v>
       </c>
       <c r="F1180" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="G1180" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B1181" t="s">
         <v>1314</v>
       </c>
       <c r="C1181" t="s">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="D1181" s="1" t="n">
-        <v>44866</v>
+        <v>44867</v>
       </c>
       <c r="E1181" s="1" t="n">
         <v>44864</v>
       </c>
       <c r="F1181" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="G1181" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="1182">
@@ -31971,45 +31743,45 @@
         <v>1350</v>
       </c>
       <c r="B1182" t="s">
-        <v>1332</v>
+        <v>1314</v>
       </c>
       <c r="C1182" t="s">
-        <v>1346</v>
+        <v>1351</v>
       </c>
       <c r="D1182" s="1" t="n">
-        <v>44867</v>
+        <v>44870</v>
       </c>
       <c r="E1182" s="1" t="n">
         <v>44864</v>
       </c>
       <c r="F1182" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="G1182" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B1183" t="s">
         <v>1314</v>
       </c>
       <c r="C1183" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D1183" s="1" t="n">
-        <v>44867</v>
+        <v>44870</v>
       </c>
       <c r="E1183" s="1" t="n">
         <v>44864</v>
       </c>
       <c r="F1183" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="G1183" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="1184">
@@ -32017,2092 +31789,689 @@
         <v>1353</v>
       </c>
       <c r="B1184" t="s">
-        <v>1332</v>
+        <v>1314</v>
       </c>
       <c r="C1184" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="D1184" s="1" t="n">
-        <v>44869</v>
+        <v>44876</v>
       </c>
       <c r="E1184" s="1" t="n">
-        <v>44864</v>
+        <v>44871</v>
       </c>
       <c r="F1184" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="G1184" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="B1185" t="s">
         <v>1314</v>
       </c>
       <c r="C1185" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D1185" s="1" t="n">
+        <v>44877</v>
+      </c>
+      <c r="E1185" s="1" t="n">
+        <v>44871</v>
+      </c>
+      <c r="F1185" t="s">
         <v>1355</v>
       </c>
-      <c r="D1185" s="1" t="n">
-        <v>44870</v>
-      </c>
-      <c r="E1185" s="1" t="n">
-        <v>44864</v>
-      </c>
-      <c r="F1185" t="s">
-        <v>1348</v>
-      </c>
       <c r="G1185" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B1186" t="s">
         <v>1314</v>
       </c>
       <c r="C1186" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="D1186" s="1" t="n">
-        <v>44870</v>
+        <v>44883</v>
       </c>
       <c r="E1186" s="1" t="n">
-        <v>44864</v>
+        <v>44878</v>
       </c>
       <c r="F1186" t="s">
-        <v>1348</v>
+        <v>1359</v>
       </c>
       <c r="G1186" t="s">
-        <v>1348</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1187">
       <c r="A1187" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="B1187" t="s">
-        <v>1332</v>
+        <v>1314</v>
       </c>
       <c r="C1187" t="s">
         <v>1358</v>
       </c>
       <c r="D1187" s="1" t="n">
-        <v>44875</v>
+        <v>44885</v>
       </c>
       <c r="E1187" s="1" t="n">
-        <v>44871</v>
+        <v>44885</v>
       </c>
       <c r="F1187" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="G1187" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="B1188" t="s">
         <v>1314</v>
       </c>
       <c r="C1188" t="s">
-        <v>1358</v>
+        <v>1363</v>
       </c>
       <c r="D1188" s="1" t="n">
-        <v>44876</v>
+        <v>44893</v>
       </c>
       <c r="E1188" s="1" t="n">
-        <v>44871</v>
+        <v>44892</v>
       </c>
       <c r="F1188" t="s">
-        <v>1359</v>
+        <v>1364</v>
       </c>
       <c r="G1188" t="s">
-        <v>1359</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="s">
-        <v>1361</v>
+        <v>1365</v>
       </c>
       <c r="B1189" t="s">
         <v>1314</v>
       </c>
       <c r="C1189" t="s">
-        <v>1358</v>
+        <v>1366</v>
       </c>
       <c r="D1189" s="1" t="n">
-        <v>44877</v>
+        <v>44897</v>
       </c>
       <c r="E1189" s="1" t="n">
-        <v>44871</v>
+        <v>44892</v>
       </c>
       <c r="F1189" t="s">
-        <v>1359</v>
+        <v>1364</v>
       </c>
       <c r="G1189" t="s">
-        <v>1359</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" t="s">
-        <v>1362</v>
+        <v>1367</v>
       </c>
       <c r="B1190" t="s">
-        <v>1332</v>
+        <v>1314</v>
       </c>
       <c r="C1190" t="s">
         <v>1363</v>
       </c>
       <c r="D1190" s="1" t="n">
-        <v>44881</v>
+        <v>44899</v>
       </c>
       <c r="E1190" s="1" t="n">
-        <v>44878</v>
+        <v>44899</v>
       </c>
       <c r="F1190" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
       <c r="G1190" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="1191">
       <c r="A1191" t="s">
-        <v>1365</v>
+        <v>1369</v>
       </c>
       <c r="B1191" t="s">
-        <v>1332</v>
+        <v>1314</v>
       </c>
       <c r="C1191" t="s">
         <v>1363</v>
       </c>
       <c r="D1191" s="1" t="n">
-        <v>44881</v>
+        <v>44899</v>
       </c>
       <c r="E1191" s="1" t="n">
-        <v>44878</v>
+        <v>44899</v>
       </c>
       <c r="F1191" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
       <c r="G1191" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" t="s">
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="B1192" t="s">
-        <v>1332</v>
+        <v>1314</v>
       </c>
       <c r="C1192" t="s">
         <v>1363</v>
       </c>
       <c r="D1192" s="1" t="n">
-        <v>44882</v>
+        <v>44901</v>
       </c>
       <c r="E1192" s="1" t="n">
-        <v>44878</v>
+        <v>44899</v>
       </c>
       <c r="F1192" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
       <c r="G1192" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" t="s">
-        <v>1367</v>
+        <v>1371</v>
       </c>
       <c r="B1193" t="s">
         <v>1314</v>
       </c>
       <c r="C1193" t="s">
-        <v>1363</v>
+        <v>1372</v>
       </c>
       <c r="D1193" s="1" t="n">
-        <v>44883</v>
+        <v>44903</v>
       </c>
       <c r="E1193" s="1" t="n">
-        <v>44878</v>
+        <v>44899</v>
       </c>
       <c r="F1193" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
       <c r="G1193" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="1194">
       <c r="A1194" t="s">
-        <v>1368</v>
+        <v>1373</v>
       </c>
       <c r="B1194" t="s">
         <v>1314</v>
       </c>
       <c r="C1194" t="s">
-        <v>1363</v>
+        <v>1372</v>
       </c>
       <c r="D1194" s="1" t="n">
-        <v>44885</v>
+        <v>44904</v>
       </c>
       <c r="E1194" s="1" t="n">
-        <v>44885</v>
+        <v>44899</v>
       </c>
       <c r="F1194" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="G1194" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="1195">
       <c r="A1195" t="s">
-        <v>1370</v>
+        <v>1374</v>
       </c>
       <c r="B1195" t="s">
         <v>1314</v>
       </c>
       <c r="C1195" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="D1195" s="1" t="n">
-        <v>44893</v>
+        <v>44907</v>
       </c>
       <c r="E1195" s="1" t="n">
-        <v>44892</v>
+        <v>44906</v>
       </c>
       <c r="F1195" t="s">
-        <v>1372</v>
+        <v>1375</v>
       </c>
       <c r="G1195" t="s">
-        <v>1372</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="s">
-        <v>1373</v>
+        <v>1376</v>
       </c>
       <c r="B1196" t="s">
-        <v>1332</v>
+        <v>1314</v>
       </c>
       <c r="C1196" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="D1196" s="1" t="n">
-        <v>44894</v>
+        <v>44907</v>
       </c>
       <c r="E1196" s="1" t="n">
-        <v>44892</v>
+        <v>44906</v>
       </c>
       <c r="F1196" t="s">
-        <v>1372</v>
+        <v>1375</v>
       </c>
       <c r="G1196" t="s">
-        <v>1372</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="B1197" t="s">
-        <v>1332</v>
+        <v>1314</v>
       </c>
       <c r="C1197" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D1197" s="1" t="n">
+        <v>44907</v>
+      </c>
+      <c r="E1197" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="F1197" t="s">
         <v>1375</v>
       </c>
-      <c r="D1197" s="1" t="n">
-        <v>44895</v>
-      </c>
-      <c r="E1197" s="1" t="n">
-        <v>44892</v>
-      </c>
-      <c r="F1197" t="s">
-        <v>1372</v>
-      </c>
       <c r="G1197" t="s">
-        <v>1372</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1198">
       <c r="A1198" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="B1198" t="s">
         <v>1314</v>
       </c>
       <c r="C1198" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D1198" s="1" t="n">
+        <v>44909</v>
+      </c>
+      <c r="E1198" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="F1198" t="s">
         <v>1375</v>
       </c>
-      <c r="D1198" s="1" t="n">
-        <v>44897</v>
-      </c>
-      <c r="E1198" s="1" t="n">
-        <v>44892</v>
-      </c>
-      <c r="F1198" t="s">
-        <v>1372</v>
-      </c>
       <c r="G1198" t="s">
-        <v>1372</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1199">
       <c r="A1199" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="B1199" t="s">
-        <v>1332</v>
+        <v>1314</v>
       </c>
       <c r="C1199" t="s">
-        <v>1375</v>
+        <v>1366</v>
       </c>
       <c r="D1199" s="1" t="n">
-        <v>44897</v>
+        <v>44916</v>
       </c>
       <c r="E1199" s="1" t="n">
-        <v>44892</v>
+        <v>44913</v>
       </c>
       <c r="F1199" t="s">
-        <v>1372</v>
+        <v>1381</v>
       </c>
       <c r="G1199" t="s">
-        <v>1372</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="s">
-        <v>1378</v>
+        <v>1382</v>
       </c>
       <c r="B1200" t="s">
         <v>1314</v>
       </c>
       <c r="C1200" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="D1200" s="1" t="n">
-        <v>44899</v>
+        <v>44917</v>
       </c>
       <c r="E1200" s="1" t="n">
-        <v>44899</v>
+        <v>44913</v>
       </c>
       <c r="F1200" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="G1200" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="B1201" t="s">
         <v>1314</v>
       </c>
       <c r="C1201" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="D1201" s="1" t="n">
-        <v>44899</v>
+        <v>44919</v>
       </c>
       <c r="E1201" s="1" t="n">
-        <v>44899</v>
+        <v>44913</v>
       </c>
       <c r="F1201" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="G1201" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="B1202" t="s">
         <v>1314</v>
       </c>
       <c r="C1202" t="s">
-        <v>1371</v>
+        <v>1385</v>
       </c>
       <c r="D1202" s="1" t="n">
-        <v>44901</v>
+        <v>44925</v>
       </c>
       <c r="E1202" s="1" t="n">
-        <v>44899</v>
+        <v>44920</v>
       </c>
       <c r="F1202" t="s">
-        <v>1379</v>
+        <v>1386</v>
       </c>
       <c r="G1202" t="s">
-        <v>1379</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="s">
-        <v>1382</v>
+        <v>1387</v>
       </c>
       <c r="B1203" t="s">
         <v>1314</v>
       </c>
       <c r="C1203" t="s">
-        <v>1383</v>
+        <v>1388</v>
       </c>
       <c r="D1203" s="1" t="n">
-        <v>44903</v>
+        <v>44930</v>
       </c>
       <c r="E1203" s="1" t="n">
-        <v>44899</v>
+        <v>44927</v>
       </c>
       <c r="F1203" t="s">
-        <v>1379</v>
+        <v>1389</v>
       </c>
       <c r="G1203" t="s">
-        <v>1379</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="s">
-        <v>1384</v>
+        <v>1390</v>
       </c>
       <c r="B1204" t="s">
         <v>1314</v>
       </c>
       <c r="C1204" t="s">
-        <v>1383</v>
+        <v>1388</v>
       </c>
       <c r="D1204" s="1" t="n">
-        <v>44904</v>
+        <v>44930</v>
       </c>
       <c r="E1204" s="1" t="n">
-        <v>44899</v>
+        <v>44927</v>
       </c>
       <c r="F1204" t="s">
-        <v>1379</v>
+        <v>1389</v>
       </c>
       <c r="G1204" t="s">
-        <v>1379</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="s">
-        <v>1385</v>
+        <v>1391</v>
       </c>
       <c r="B1205" t="s">
         <v>1314</v>
       </c>
       <c r="C1205" t="s">
-        <v>1383</v>
+        <v>1388</v>
       </c>
       <c r="D1205" s="1" t="n">
-        <v>44907</v>
+        <v>44930</v>
       </c>
       <c r="E1205" s="1" t="n">
-        <v>44906</v>
+        <v>44927</v>
       </c>
       <c r="F1205" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="G1205" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="s">
-        <v>1387</v>
+        <v>1392</v>
       </c>
       <c r="B1206" t="s">
         <v>1314</v>
       </c>
       <c r="C1206" t="s">
-        <v>1383</v>
+        <v>1388</v>
       </c>
       <c r="D1206" s="1" t="n">
-        <v>44907</v>
+        <v>44931</v>
       </c>
       <c r="E1206" s="1" t="n">
-        <v>44906</v>
+        <v>44927</v>
       </c>
       <c r="F1206" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="G1206" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="s">
-        <v>1388</v>
+        <v>1393</v>
       </c>
       <c r="B1207" t="s">
         <v>1314</v>
       </c>
       <c r="C1207" t="s">
-        <v>1383</v>
+        <v>1388</v>
       </c>
       <c r="D1207" s="1" t="n">
-        <v>44907</v>
+        <v>44933</v>
       </c>
       <c r="E1207" s="1" t="n">
-        <v>44906</v>
+        <v>44927</v>
       </c>
       <c r="F1207" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="G1207" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="B1208" t="s">
-        <v>1332</v>
+        <v>1314</v>
       </c>
       <c r="C1208" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="D1208" s="1" t="n">
-        <v>44908</v>
+        <v>44934</v>
       </c>
       <c r="E1208" s="1" t="n">
-        <v>44906</v>
+        <v>44934</v>
       </c>
       <c r="F1208" t="s">
-        <v>1386</v>
+        <v>1396</v>
       </c>
       <c r="G1208" t="s">
-        <v>1386</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="s">
-        <v>1391</v>
+        <v>1397</v>
       </c>
       <c r="B1209" t="s">
-        <v>1332</v>
+        <v>1314</v>
       </c>
       <c r="C1209" t="s">
-        <v>1390</v>
+        <v>1398</v>
       </c>
       <c r="D1209" s="1" t="n">
-        <v>44908</v>
+        <v>44936</v>
       </c>
       <c r="E1209" s="1" t="n">
-        <v>44906</v>
+        <v>44934</v>
       </c>
       <c r="F1209" t="s">
-        <v>1386</v>
+        <v>1396</v>
       </c>
       <c r="G1209" t="s">
-        <v>1386</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="s">
-        <v>1392</v>
+        <v>1399</v>
       </c>
       <c r="B1210" t="s">
         <v>1314</v>
       </c>
       <c r="C1210" t="s">
-        <v>1390</v>
+        <v>1400</v>
       </c>
       <c r="D1210" s="1" t="n">
-        <v>44909</v>
+        <v>44937</v>
       </c>
       <c r="E1210" s="1" t="n">
-        <v>44906</v>
+        <v>44934</v>
       </c>
       <c r="F1210" t="s">
-        <v>1386</v>
+        <v>1396</v>
       </c>
       <c r="G1210" t="s">
-        <v>1386</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="s">
-        <v>1393</v>
+        <v>1401</v>
       </c>
       <c r="B1211" t="s">
         <v>1314</v>
       </c>
       <c r="C1211" t="s">
-        <v>1375</v>
+        <v>1400</v>
       </c>
       <c r="D1211" s="1" t="n">
-        <v>44916</v>
+        <v>44938</v>
       </c>
       <c r="E1211" s="1" t="n">
-        <v>44913</v>
+        <v>44934</v>
       </c>
       <c r="F1211" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="G1211" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="s">
-        <v>1395</v>
+        <v>1402</v>
       </c>
       <c r="B1212" t="s">
-        <v>1332</v>
+        <v>1314</v>
       </c>
       <c r="C1212" t="s">
-        <v>1375</v>
+        <v>1403</v>
       </c>
       <c r="D1212" s="1" t="n">
-        <v>44917</v>
+        <v>44944</v>
       </c>
       <c r="E1212" s="1" t="n">
-        <v>44913</v>
+        <v>44941</v>
       </c>
       <c r="F1212" t="s">
-        <v>1394</v>
+        <v>1404</v>
       </c>
       <c r="G1212" t="s">
-        <v>1394</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" t="s">
-        <v>1396</v>
+        <v>1405</v>
       </c>
       <c r="B1213" t="s">
         <v>1314</v>
       </c>
       <c r="C1213" t="s">
-        <v>1375</v>
+        <v>1406</v>
       </c>
       <c r="D1213" s="1" t="n">
-        <v>44917</v>
+        <v>44952</v>
       </c>
       <c r="E1213" s="1" t="n">
-        <v>44913</v>
+        <v>44948</v>
       </c>
       <c r="F1213" t="s">
-        <v>1394</v>
+        <v>1407</v>
       </c>
       <c r="G1213" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="1214">
-      <c r="A1214" t="s">
-        <v>1397</v>
-      </c>
-      <c r="B1214" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1214" t="s">
-        <v>1375</v>
-      </c>
-      <c r="D1214" s="1" t="n">
-        <v>44918</v>
-      </c>
-      <c r="E1214" s="1" t="n">
-        <v>44913</v>
-      </c>
-      <c r="F1214" t="s">
-        <v>1394</v>
-      </c>
-      <c r="G1214" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="1215">
-      <c r="A1215" t="s">
-        <v>1398</v>
-      </c>
-      <c r="B1215" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C1215" t="s">
-        <v>1375</v>
-      </c>
-      <c r="D1215" s="1" t="n">
-        <v>44919</v>
-      </c>
-      <c r="E1215" s="1" t="n">
-        <v>44913</v>
-      </c>
-      <c r="F1215" t="s">
-        <v>1394</v>
-      </c>
-      <c r="G1215" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="1216">
-      <c r="A1216" t="s">
-        <v>1399</v>
-      </c>
-      <c r="B1216" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1216" t="s">
-        <v>1400</v>
-      </c>
-      <c r="D1216" s="1" t="n">
-        <v>44924</v>
-      </c>
-      <c r="E1216" s="1" t="n">
-        <v>44920</v>
-      </c>
-      <c r="F1216" t="s">
-        <v>1401</v>
-      </c>
-      <c r="G1216" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="1217">
-      <c r="A1217" t="s">
-        <v>1402</v>
-      </c>
-      <c r="B1217" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1217" t="s">
-        <v>1400</v>
-      </c>
-      <c r="D1217" s="1" t="n">
-        <v>44924</v>
-      </c>
-      <c r="E1217" s="1" t="n">
-        <v>44920</v>
-      </c>
-      <c r="F1217" t="s">
-        <v>1401</v>
-      </c>
-      <c r="G1217" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="1218">
-      <c r="A1218" t="s">
-        <v>1403</v>
-      </c>
-      <c r="B1218" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C1218" t="s">
-        <v>1400</v>
-      </c>
-      <c r="D1218" s="1" t="n">
-        <v>44925</v>
-      </c>
-      <c r="E1218" s="1" t="n">
-        <v>44920</v>
-      </c>
-      <c r="F1218" t="s">
-        <v>1401</v>
-      </c>
-      <c r="G1218" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="1219">
-      <c r="A1219" t="s">
-        <v>1404</v>
-      </c>
-      <c r="B1219" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1219" t="s">
-        <v>1405</v>
-      </c>
-      <c r="D1219" s="1" t="n">
-        <v>44928</v>
-      </c>
-      <c r="E1219" s="1" t="n">
-        <v>44927</v>
-      </c>
-      <c r="F1219" t="s">
-        <v>1406</v>
-      </c>
-      <c r="G1219" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="1220">
-      <c r="A1220" t="s">
         <v>1407</v>
-      </c>
-      <c r="B1220" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1220" t="s">
-        <v>1405</v>
-      </c>
-      <c r="D1220" s="1" t="n">
-        <v>44929</v>
-      </c>
-      <c r="E1220" s="1" t="n">
-        <v>44927</v>
-      </c>
-      <c r="F1220" t="s">
-        <v>1406</v>
-      </c>
-      <c r="G1220" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="1221">
-      <c r="A1221" t="s">
-        <v>1408</v>
-      </c>
-      <c r="B1221" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1221" t="s">
-        <v>1405</v>
-      </c>
-      <c r="D1221" s="1" t="n">
-        <v>44929</v>
-      </c>
-      <c r="E1221" s="1" t="n">
-        <v>44927</v>
-      </c>
-      <c r="F1221" t="s">
-        <v>1406</v>
-      </c>
-      <c r="G1221" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="1222">
-      <c r="A1222" t="s">
-        <v>1409</v>
-      </c>
-      <c r="B1222" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C1222" t="s">
-        <v>1405</v>
-      </c>
-      <c r="D1222" s="1" t="n">
-        <v>44930</v>
-      </c>
-      <c r="E1222" s="1" t="n">
-        <v>44927</v>
-      </c>
-      <c r="F1222" t="s">
-        <v>1406</v>
-      </c>
-      <c r="G1222" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="1223">
-      <c r="A1223" t="s">
-        <v>1410</v>
-      </c>
-      <c r="B1223" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C1223" t="s">
-        <v>1405</v>
-      </c>
-      <c r="D1223" s="1" t="n">
-        <v>44930</v>
-      </c>
-      <c r="E1223" s="1" t="n">
-        <v>44927</v>
-      </c>
-      <c r="F1223" t="s">
-        <v>1406</v>
-      </c>
-      <c r="G1223" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="1224">
-      <c r="A1224" t="s">
-        <v>1411</v>
-      </c>
-      <c r="B1224" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1224" t="s">
-        <v>1405</v>
-      </c>
-      <c r="D1224" s="1" t="n">
-        <v>44930</v>
-      </c>
-      <c r="E1224" s="1" t="n">
-        <v>44927</v>
-      </c>
-      <c r="F1224" t="s">
-        <v>1406</v>
-      </c>
-      <c r="G1224" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="1225">
-      <c r="A1225" t="s">
-        <v>1412</v>
-      </c>
-      <c r="B1225" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C1225" t="s">
-        <v>1405</v>
-      </c>
-      <c r="D1225" s="1" t="n">
-        <v>44930</v>
-      </c>
-      <c r="E1225" s="1" t="n">
-        <v>44927</v>
-      </c>
-      <c r="F1225" t="s">
-        <v>1406</v>
-      </c>
-      <c r="G1225" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="1226">
-      <c r="A1226" t="s">
-        <v>1413</v>
-      </c>
-      <c r="B1226" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C1226" t="s">
-        <v>1405</v>
-      </c>
-      <c r="D1226" s="1" t="n">
-        <v>44931</v>
-      </c>
-      <c r="E1226" s="1" t="n">
-        <v>44927</v>
-      </c>
-      <c r="F1226" t="s">
-        <v>1406</v>
-      </c>
-      <c r="G1226" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="1227">
-      <c r="A1227" t="s">
-        <v>1414</v>
-      </c>
-      <c r="B1227" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1227" t="s">
-        <v>1405</v>
-      </c>
-      <c r="D1227" s="1" t="n">
-        <v>44932</v>
-      </c>
-      <c r="E1227" s="1" t="n">
-        <v>44927</v>
-      </c>
-      <c r="F1227" t="s">
-        <v>1406</v>
-      </c>
-      <c r="G1227" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="1228">
-      <c r="A1228" t="s">
-        <v>1415</v>
-      </c>
-      <c r="B1228" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1228" t="s">
-        <v>1405</v>
-      </c>
-      <c r="D1228" s="1" t="n">
-        <v>44932</v>
-      </c>
-      <c r="E1228" s="1" t="n">
-        <v>44927</v>
-      </c>
-      <c r="F1228" t="s">
-        <v>1406</v>
-      </c>
-      <c r="G1228" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="1229">
-      <c r="A1229" t="s">
-        <v>1416</v>
-      </c>
-      <c r="B1229" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C1229" t="s">
-        <v>1405</v>
-      </c>
-      <c r="D1229" s="1" t="n">
-        <v>44933</v>
-      </c>
-      <c r="E1229" s="1" t="n">
-        <v>44927</v>
-      </c>
-      <c r="F1229" t="s">
-        <v>1406</v>
-      </c>
-      <c r="G1229" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="1230">
-      <c r="A1230" t="s">
-        <v>1417</v>
-      </c>
-      <c r="B1230" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1230" t="s">
-        <v>1405</v>
-      </c>
-      <c r="D1230" s="1" t="n">
-        <v>44933</v>
-      </c>
-      <c r="E1230" s="1" t="n">
-        <v>44927</v>
-      </c>
-      <c r="F1230" t="s">
-        <v>1406</v>
-      </c>
-      <c r="G1230" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="1231">
-      <c r="A1231" t="s">
-        <v>1418</v>
-      </c>
-      <c r="B1231" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C1231" t="s">
-        <v>1419</v>
-      </c>
-      <c r="D1231" s="1" t="n">
-        <v>44934</v>
-      </c>
-      <c r="E1231" s="1" t="n">
-        <v>44934</v>
-      </c>
-      <c r="F1231" t="s">
-        <v>1420</v>
-      </c>
-      <c r="G1231" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="1232">
-      <c r="A1232" t="s">
-        <v>1421</v>
-      </c>
-      <c r="B1232" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1232" t="s">
-        <v>1422</v>
-      </c>
-      <c r="D1232" s="1" t="n">
-        <v>44936</v>
-      </c>
-      <c r="E1232" s="1" t="n">
-        <v>44934</v>
-      </c>
-      <c r="F1232" t="s">
-        <v>1420</v>
-      </c>
-      <c r="G1232" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="1233">
-      <c r="A1233" t="s">
-        <v>1423</v>
-      </c>
-      <c r="B1233" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C1233" t="s">
-        <v>1422</v>
-      </c>
-      <c r="D1233" s="1" t="n">
-        <v>44936</v>
-      </c>
-      <c r="E1233" s="1" t="n">
-        <v>44934</v>
-      </c>
-      <c r="F1233" t="s">
-        <v>1420</v>
-      </c>
-      <c r="G1233" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="1234">
-      <c r="A1234" t="s">
-        <v>1424</v>
-      </c>
-      <c r="B1234" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C1234" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D1234" s="1" t="n">
-        <v>44937</v>
-      </c>
-      <c r="E1234" s="1" t="n">
-        <v>44934</v>
-      </c>
-      <c r="F1234" t="s">
-        <v>1420</v>
-      </c>
-      <c r="G1234" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="1235">
-      <c r="A1235" t="s">
-        <v>1426</v>
-      </c>
-      <c r="B1235" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1235" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D1235" s="1" t="n">
-        <v>44937</v>
-      </c>
-      <c r="E1235" s="1" t="n">
-        <v>44934</v>
-      </c>
-      <c r="F1235" t="s">
-        <v>1420</v>
-      </c>
-      <c r="G1235" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="1236">
-      <c r="A1236" t="s">
-        <v>1427</v>
-      </c>
-      <c r="B1236" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C1236" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D1236" s="1" t="n">
-        <v>44938</v>
-      </c>
-      <c r="E1236" s="1" t="n">
-        <v>44934</v>
-      </c>
-      <c r="F1236" t="s">
-        <v>1420</v>
-      </c>
-      <c r="G1236" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="1237">
-      <c r="A1237" t="s">
-        <v>1428</v>
-      </c>
-      <c r="B1237" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1237" t="s">
-        <v>1429</v>
-      </c>
-      <c r="D1237" s="1" t="n">
-        <v>44942</v>
-      </c>
-      <c r="E1237" s="1" t="n">
-        <v>44941</v>
-      </c>
-      <c r="F1237" t="s">
-        <v>1430</v>
-      </c>
-      <c r="G1237" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="1238">
-      <c r="A1238" t="s">
-        <v>1431</v>
-      </c>
-      <c r="B1238" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C1238" t="s">
-        <v>1432</v>
-      </c>
-      <c r="D1238" s="1" t="n">
-        <v>44944</v>
-      </c>
-      <c r="E1238" s="1" t="n">
-        <v>44941</v>
-      </c>
-      <c r="F1238" t="s">
-        <v>1430</v>
-      </c>
-      <c r="G1238" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="1239">
-      <c r="A1239" t="s">
-        <v>1433</v>
-      </c>
-      <c r="B1239" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1239" t="s">
-        <v>1434</v>
-      </c>
-      <c r="D1239" s="1" t="n">
-        <v>44948</v>
-      </c>
-      <c r="E1239" s="1" t="n">
-        <v>44948</v>
-      </c>
-      <c r="F1239" t="s">
-        <v>1435</v>
-      </c>
-      <c r="G1239" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="1240">
-      <c r="A1240" t="s">
-        <v>1436</v>
-      </c>
-      <c r="B1240" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1240" t="s">
-        <v>1434</v>
-      </c>
-      <c r="D1240" s="1" t="n">
-        <v>44949</v>
-      </c>
-      <c r="E1240" s="1" t="n">
-        <v>44948</v>
-      </c>
-      <c r="F1240" t="s">
-        <v>1435</v>
-      </c>
-      <c r="G1240" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="1241">
-      <c r="A1241" t="s">
-        <v>1437</v>
-      </c>
-      <c r="B1241" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1241" t="s">
-        <v>1438</v>
-      </c>
-      <c r="D1241" s="1" t="n">
-        <v>44950</v>
-      </c>
-      <c r="E1241" s="1" t="n">
-        <v>44948</v>
-      </c>
-      <c r="F1241" t="s">
-        <v>1435</v>
-      </c>
-      <c r="G1241" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="1242">
-      <c r="A1242" t="s">
-        <v>1439</v>
-      </c>
-      <c r="B1242" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C1242" t="s">
-        <v>1438</v>
-      </c>
-      <c r="D1242" s="1" t="n">
-        <v>44952</v>
-      </c>
-      <c r="E1242" s="1" t="n">
-        <v>44948</v>
-      </c>
-      <c r="F1242" t="s">
-        <v>1435</v>
-      </c>
-      <c r="G1242" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="1243">
-      <c r="A1243" t="s">
-        <v>1440</v>
-      </c>
-      <c r="B1243" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1243" t="s">
-        <v>1441</v>
-      </c>
-      <c r="D1243" s="1" t="n">
-        <v>44955</v>
-      </c>
-      <c r="E1243" s="1" t="n">
-        <v>44955</v>
-      </c>
-      <c r="F1243" t="s">
-        <v>1442</v>
-      </c>
-      <c r="G1243" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="1244">
-      <c r="A1244" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B1244" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1244" t="s">
-        <v>1441</v>
-      </c>
-      <c r="D1244" s="1" t="n">
-        <v>44956</v>
-      </c>
-      <c r="E1244" s="1" t="n">
-        <v>44955</v>
-      </c>
-      <c r="F1244" t="s">
-        <v>1442</v>
-      </c>
-      <c r="G1244" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="1245">
-      <c r="A1245" t="s">
-        <v>1444</v>
-      </c>
-      <c r="B1245" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1245" t="s">
-        <v>1438</v>
-      </c>
-      <c r="D1245" s="1" t="n">
-        <v>44957</v>
-      </c>
-      <c r="E1245" s="1" t="n">
-        <v>44955</v>
-      </c>
-      <c r="F1245" t="s">
-        <v>1442</v>
-      </c>
-      <c r="G1245" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="1246">
-      <c r="A1246" t="s">
-        <v>1445</v>
-      </c>
-      <c r="B1246" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1246" t="s">
-        <v>1438</v>
-      </c>
-      <c r="D1246" s="1" t="n">
-        <v>44960</v>
-      </c>
-      <c r="E1246" s="1" t="n">
-        <v>44955</v>
-      </c>
-      <c r="F1246" t="s">
-        <v>1442</v>
-      </c>
-      <c r="G1246" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="1247">
-      <c r="A1247" t="s">
-        <v>1446</v>
-      </c>
-      <c r="B1247" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1247" t="s">
-        <v>1438</v>
-      </c>
-      <c r="D1247" s="1" t="n">
-        <v>44961</v>
-      </c>
-      <c r="E1247" s="1" t="n">
-        <v>44955</v>
-      </c>
-      <c r="F1247" t="s">
-        <v>1442</v>
-      </c>
-      <c r="G1247" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="1248">
-      <c r="A1248" t="s">
-        <v>1447</v>
-      </c>
-      <c r="B1248" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1248" t="s">
-        <v>1438</v>
-      </c>
-      <c r="D1248" s="1" t="n">
-        <v>44962</v>
-      </c>
-      <c r="E1248" s="1" t="n">
-        <v>44962</v>
-      </c>
-      <c r="F1248" t="s">
-        <v>1448</v>
-      </c>
-      <c r="G1248" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="1249">
-      <c r="A1249" t="s">
-        <v>1449</v>
-      </c>
-      <c r="B1249" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1249" t="s">
-        <v>1438</v>
-      </c>
-      <c r="D1249" s="1" t="n">
-        <v>44962</v>
-      </c>
-      <c r="E1249" s="1" t="n">
-        <v>44962</v>
-      </c>
-      <c r="F1249" t="s">
-        <v>1448</v>
-      </c>
-      <c r="G1249" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="1250">
-      <c r="A1250" t="s">
-        <v>1450</v>
-      </c>
-      <c r="B1250" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1250" t="s">
-        <v>1451</v>
-      </c>
-      <c r="D1250" s="1" t="n">
-        <v>44964</v>
-      </c>
-      <c r="E1250" s="1" t="n">
-        <v>44962</v>
-      </c>
-      <c r="F1250" t="s">
-        <v>1448</v>
-      </c>
-      <c r="G1250" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="1251">
-      <c r="A1251" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B1251" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1251" t="s">
-        <v>1438</v>
-      </c>
-      <c r="D1251" s="1" t="n">
-        <v>44965</v>
-      </c>
-      <c r="E1251" s="1" t="n">
-        <v>44962</v>
-      </c>
-      <c r="F1251" t="s">
-        <v>1448</v>
-      </c>
-      <c r="G1251" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="1252">
-      <c r="A1252" t="s">
-        <v>1453</v>
-      </c>
-      <c r="B1252" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1252" t="s">
-        <v>1438</v>
-      </c>
-      <c r="D1252" s="1" t="n">
-        <v>44965</v>
-      </c>
-      <c r="E1252" s="1" t="n">
-        <v>44962</v>
-      </c>
-      <c r="F1252" t="s">
-        <v>1448</v>
-      </c>
-      <c r="G1252" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="1253">
-      <c r="A1253" t="s">
-        <v>1454</v>
-      </c>
-      <c r="B1253" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1253" t="s">
-        <v>1438</v>
-      </c>
-      <c r="D1253" s="1" t="n">
-        <v>44966</v>
-      </c>
-      <c r="E1253" s="1" t="n">
-        <v>44962</v>
-      </c>
-      <c r="F1253" t="s">
-        <v>1448</v>
-      </c>
-      <c r="G1253" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="1254">
-      <c r="A1254" t="s">
-        <v>1455</v>
-      </c>
-      <c r="B1254" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1254" t="s">
-        <v>1451</v>
-      </c>
-      <c r="D1254" s="1" t="n">
-        <v>44967</v>
-      </c>
-      <c r="E1254" s="1" t="n">
-        <v>44962</v>
-      </c>
-      <c r="F1254" t="s">
-        <v>1448</v>
-      </c>
-      <c r="G1254" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="1255">
-      <c r="A1255" t="s">
-        <v>1456</v>
-      </c>
-      <c r="B1255" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1255" t="s">
-        <v>1451</v>
-      </c>
-      <c r="D1255" s="1" t="n">
-        <v>44967</v>
-      </c>
-      <c r="E1255" s="1" t="n">
-        <v>44962</v>
-      </c>
-      <c r="F1255" t="s">
-        <v>1448</v>
-      </c>
-      <c r="G1255" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="1256">
-      <c r="A1256" t="s">
-        <v>1457</v>
-      </c>
-      <c r="B1256" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1256" t="s">
-        <v>1458</v>
-      </c>
-      <c r="D1256" s="1" t="n">
-        <v>44992</v>
-      </c>
-      <c r="E1256" s="1" t="n">
-        <v>44990</v>
-      </c>
-      <c r="F1256" t="s">
-        <v>1459</v>
-      </c>
-      <c r="G1256" t="s">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="1257">
-      <c r="A1257" t="s">
-        <v>1460</v>
-      </c>
-      <c r="B1257" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1257" t="s">
-        <v>1458</v>
-      </c>
-      <c r="D1257" s="1" t="n">
-        <v>44993</v>
-      </c>
-      <c r="E1257" s="1" t="n">
-        <v>44990</v>
-      </c>
-      <c r="F1257" t="s">
-        <v>1459</v>
-      </c>
-      <c r="G1257" t="s">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="1258">
-      <c r="A1258" t="s">
-        <v>1461</v>
-      </c>
-      <c r="B1258" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1258" t="s">
-        <v>1458</v>
-      </c>
-      <c r="D1258" s="1" t="n">
-        <v>44993</v>
-      </c>
-      <c r="E1258" s="1" t="n">
-        <v>44990</v>
-      </c>
-      <c r="F1258" t="s">
-        <v>1459</v>
-      </c>
-      <c r="G1258" t="s">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="1259">
-      <c r="A1259" t="s">
-        <v>1462</v>
-      </c>
-      <c r="B1259" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1259" t="s">
-        <v>1458</v>
-      </c>
-      <c r="D1259" s="1" t="n">
-        <v>44995</v>
-      </c>
-      <c r="E1259" s="1" t="n">
-        <v>44990</v>
-      </c>
-      <c r="F1259" t="s">
-        <v>1459</v>
-      </c>
-      <c r="G1259" t="s">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="1260">
-      <c r="A1260" t="s">
-        <v>1463</v>
-      </c>
-      <c r="B1260" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1260" t="s">
-        <v>1458</v>
-      </c>
-      <c r="D1260" s="1" t="n">
-        <v>44995</v>
-      </c>
-      <c r="E1260" s="1" t="n">
-        <v>44990</v>
-      </c>
-      <c r="F1260" t="s">
-        <v>1459</v>
-      </c>
-      <c r="G1260" t="s">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="1261">
-      <c r="A1261" t="s">
-        <v>1464</v>
-      </c>
-      <c r="B1261" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1261" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D1261" s="1" t="n">
-        <v>44997</v>
-      </c>
-      <c r="E1261" s="1" t="n">
-        <v>44997</v>
-      </c>
-      <c r="F1261" t="s">
-        <v>1466</v>
-      </c>
-      <c r="G1261" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="1262">
-      <c r="A1262" t="s">
-        <v>1467</v>
-      </c>
-      <c r="B1262" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1262" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D1262" s="1" t="n">
-        <v>44997</v>
-      </c>
-      <c r="E1262" s="1" t="n">
-        <v>44997</v>
-      </c>
-      <c r="F1262" t="s">
-        <v>1466</v>
-      </c>
-      <c r="G1262" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="1263">
-      <c r="A1263" t="s">
-        <v>1468</v>
-      </c>
-      <c r="B1263" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1263" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D1263" s="1" t="n">
-        <v>44997</v>
-      </c>
-      <c r="E1263" s="1" t="n">
-        <v>44997</v>
-      </c>
-      <c r="F1263" t="s">
-        <v>1466</v>
-      </c>
-      <c r="G1263" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="1264">
-      <c r="A1264" t="s">
-        <v>1469</v>
-      </c>
-      <c r="B1264" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1264" t="s">
-        <v>1470</v>
-      </c>
-      <c r="D1264" s="1" t="n">
-        <v>44998</v>
-      </c>
-      <c r="E1264" s="1" t="n">
-        <v>44997</v>
-      </c>
-      <c r="F1264" t="s">
-        <v>1466</v>
-      </c>
-      <c r="G1264" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="1265">
-      <c r="A1265" t="s">
-        <v>1471</v>
-      </c>
-      <c r="B1265" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1265" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D1265" s="1" t="n">
-        <v>44999</v>
-      </c>
-      <c r="E1265" s="1" t="n">
-        <v>44997</v>
-      </c>
-      <c r="F1265" t="s">
-        <v>1466</v>
-      </c>
-      <c r="G1265" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="1266">
-      <c r="A1266" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B1266" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1266" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D1266" s="1" t="n">
-        <v>45000</v>
-      </c>
-      <c r="E1266" s="1" t="n">
-        <v>44997</v>
-      </c>
-      <c r="F1266" t="s">
-        <v>1466</v>
-      </c>
-      <c r="G1266" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="1267">
-      <c r="A1267" t="s">
-        <v>1473</v>
-      </c>
-      <c r="B1267" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1267" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D1267" s="1" t="n">
-        <v>45000</v>
-      </c>
-      <c r="E1267" s="1" t="n">
-        <v>44997</v>
-      </c>
-      <c r="F1267" t="s">
-        <v>1466</v>
-      </c>
-      <c r="G1267" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="1268">
-      <c r="A1268" t="s">
-        <v>1474</v>
-      </c>
-      <c r="B1268" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1268" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D1268" s="1" t="n">
-        <v>45000</v>
-      </c>
-      <c r="E1268" s="1" t="n">
-        <v>44997</v>
-      </c>
-      <c r="F1268" t="s">
-        <v>1466</v>
-      </c>
-      <c r="G1268" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="1269">
-      <c r="A1269" t="s">
-        <v>1475</v>
-      </c>
-      <c r="B1269" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1269" t="s">
-        <v>1470</v>
-      </c>
-      <c r="D1269" s="1" t="n">
-        <v>45001</v>
-      </c>
-      <c r="E1269" s="1" t="n">
-        <v>44997</v>
-      </c>
-      <c r="F1269" t="s">
-        <v>1466</v>
-      </c>
-      <c r="G1269" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="1270">
-      <c r="A1270" t="s">
-        <v>1476</v>
-      </c>
-      <c r="B1270" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1270" t="s">
-        <v>1470</v>
-      </c>
-      <c r="D1270" s="1" t="n">
-        <v>45004</v>
-      </c>
-      <c r="E1270" s="1" t="n">
-        <v>45004</v>
-      </c>
-      <c r="F1270" t="s">
-        <v>1477</v>
-      </c>
-      <c r="G1270" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="1271">
-      <c r="A1271" t="s">
-        <v>1478</v>
-      </c>
-      <c r="B1271" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1271" t="s">
-        <v>1470</v>
-      </c>
-      <c r="D1271" s="1" t="n">
-        <v>45004</v>
-      </c>
-      <c r="E1271" s="1" t="n">
-        <v>45004</v>
-      </c>
-      <c r="F1271" t="s">
-        <v>1477</v>
-      </c>
-      <c r="G1271" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="1272">
-      <c r="A1272" t="s">
-        <v>1479</v>
-      </c>
-      <c r="B1272" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1272" t="s">
-        <v>1470</v>
-      </c>
-      <c r="D1272" s="1" t="n">
-        <v>45005</v>
-      </c>
-      <c r="E1272" s="1" t="n">
-        <v>45004</v>
-      </c>
-      <c r="F1272" t="s">
-        <v>1477</v>
-      </c>
-      <c r="G1272" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="1273">
-      <c r="A1273" t="s">
-        <v>1480</v>
-      </c>
-      <c r="B1273" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1273" t="s">
-        <v>1481</v>
-      </c>
-      <c r="D1273" s="1" t="n">
-        <v>45012</v>
-      </c>
-      <c r="E1273" s="1" t="n">
-        <v>45011</v>
-      </c>
-      <c r="F1273" t="s">
-        <v>1482</v>
-      </c>
-      <c r="G1273" t="s">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="1274">
-      <c r="A1274" t="s">
-        <v>1483</v>
-      </c>
-      <c r="B1274" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1274" t="s">
-        <v>1481</v>
-      </c>
-      <c r="D1274" s="1" t="n">
-        <v>45012</v>
-      </c>
-      <c r="E1274" s="1" t="n">
-        <v>45011</v>
-      </c>
-      <c r="F1274" t="s">
-        <v>1482</v>
-      </c>
-      <c r="G1274" t="s">
-        <v>1482</v>
       </c>
     </row>
   </sheetData>
